--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A6CAD-F84A-4C4B-A22C-274875F056E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C54317-7469-425A-A7EF-36C51CE0D346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="123">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -673,6 +673,69 @@
     <rPh sb="10" eb="12">
       <t>リョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃で検索できるようになります</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポストテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日付</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント日付</t>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードテーブルのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージが出るようにするorNULL</t>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cルームテーブルから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CルームID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1130,7 +1193,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1568,7 +1631,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,7 +1802,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>board_id int (7),</v>
@@ -1767,7 +1832,9 @@
         <v>59</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>sender_id varchar (60),</v>
@@ -1795,7 +1862,9 @@
         <v>59</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>comment varchar (100),</v>
@@ -1806,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>
@@ -2632,7 +2701,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2872,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>room_id int (10),</v>
@@ -2831,7 +2902,9 @@
         <v>59</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_id varchar (60)</v>
@@ -3158,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3358,7 +3431,9 @@
         <v>59</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
         <v>room_id int (10),</v>
@@ -3383,7 +3458,9 @@
         <v>59</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="L13" t="e">
         <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -3693,7 +3770,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4220,7 +4297,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4504,25 +4581,35 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>freespace freespace (30)</v>
+        <v>freespace freespace (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>pw varchar (20)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -4775,7 +4862,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5303,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81A0EAA-6C10-4DD8-A4FB-079E3D9185DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5475,7 +5562,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (60),</v>
@@ -5499,7 +5588,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -5553,7 +5644,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>text varchar (140),</v>
@@ -5867,7 +5960,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6038,7 +6131,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>post_id int (7),</v>
@@ -6066,7 +6161,9 @@
         <v>59</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>sender_id varchar (60)</v>
@@ -6394,7 +6491,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6565,7 +6662,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>post_id int (7),</v>
@@ -6921,7 +7020,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7092,7 +7191,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>follow_id varchar (60),</v>
@@ -7120,7 +7221,9 @@
         <v>59</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>followed_id varchar (60)</v>
@@ -7448,7 +7551,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7619,7 +7722,9 @@
         <v>59</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (60),</v>
@@ -7643,7 +7748,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -7669,7 +7776,9 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -7682,7 +7791,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C54317-7469-425A-A7EF-36C51CE0D346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8581257E-A05F-408B-A540-DDF77DC3E6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="13" r:id="rId2"/>
-    <sheet name="User" sheetId="12" r:id="rId3"/>
-    <sheet name="Feeling" sheetId="11" r:id="rId4"/>
-    <sheet name="Post" sheetId="10" r:id="rId5"/>
-    <sheet name="postR" sheetId="9" r:id="rId6"/>
-    <sheet name="PostH" sheetId="8" r:id="rId7"/>
-    <sheet name="Follow" sheetId="7" r:id="rId8"/>
-    <sheet name="Board" sheetId="6" r:id="rId9"/>
-    <sheet name="BoardR" sheetId="5" r:id="rId10"/>
+    <sheet name="User" sheetId="12" r:id="rId2"/>
+    <sheet name="Feeling" sheetId="11" r:id="rId3"/>
+    <sheet name="Post" sheetId="10" r:id="rId4"/>
+    <sheet name="postR" sheetId="9" r:id="rId5"/>
+    <sheet name="PostH" sheetId="8" r:id="rId6"/>
+    <sheet name="Follow" sheetId="7" r:id="rId7"/>
+    <sheet name="Board" sheetId="6" r:id="rId8"/>
+    <sheet name="BoardC" sheetId="5" r:id="rId9"/>
+    <sheet name="BoardS" sheetId="15" r:id="rId10"/>
     <sheet name="Croom" sheetId="4" r:id="rId11"/>
     <sheet name="Cmember" sheetId="3" r:id="rId12"/>
     <sheet name="Cmessage" sheetId="2" r:id="rId13"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
   </si>
   <si>
@@ -287,13 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板リアクション</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャットルーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,10 +324,6 @@
   </si>
   <si>
     <t>Board</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BoardR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -736,6 +717,76 @@
   </si>
   <si>
     <t>ユーザーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板コメント</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板保存</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存者ID</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬猫選択</t>
+    <rPh sb="0" eb="4">
+      <t>イヌネコセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0が猫、1が犬、2が両方</t>
+    <rPh sb="2" eb="3">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イヌ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -783,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -819,13 +870,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +910,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1259,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1273,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1291,10 +1356,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1306,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>26</v>
@@ -1321,10 +1386,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1336,10 +1401,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1351,10 +1416,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1366,10 +1431,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1378,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1392,13 +1457,13 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="3"/>
@@ -1408,13 +1473,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1423,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -1438,13 +1503,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -1614,9 +1679,6 @@
       <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
   </sheetData>
@@ -1627,11 +1689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D65A4E3-5E1C-45A9-BCF8-04CD5CE3085E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC408542-E10D-40BF-9B21-6187A9D5877D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1689,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1703,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1745,7 +1807,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table BoardR (</v>
+        <v>create table BoardS (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1753,25 +1815,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1785,13 +1847,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -1799,11 +1861,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1815,13 +1877,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>60</v>
@@ -1829,73 +1891,51 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>sender_id varchar (60),</v>
+        <v>sender_id varchar (60)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>comment varchar (100),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date date </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2242,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2256,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2306,25 +2346,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2338,13 +2378,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>25</v>
@@ -2353,7 +2393,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2759,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2773,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2823,25 +2863,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2855,13 +2895,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -2869,11 +2909,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2885,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>60</v>
@@ -2899,11 +2939,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3231,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3290,7 +3330,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3304,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3354,25 +3394,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3386,13 +3426,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -3400,7 +3440,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3414,13 +3454,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -3428,11 +3468,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
@@ -3444,10 +3484,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>60</v>
@@ -3455,11 +3498,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L13" t="e">
         <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3470,36 +3513,56 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>date date ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">time time </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3766,533 +3829,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0F3A9-B83A-49CE-ACA6-6A5FD0D621F6}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44719</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Login (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (60),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pw varchar (20)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF350CD-4574-41A1-8FC1-E78F8427A005}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4355,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4369,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4419,25 +3955,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4451,13 +3987,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -4465,7 +4001,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4479,13 +4015,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -4493,7 +4029,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4507,13 +4043,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -4533,13 +4069,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -4548,10 +4084,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4563,13 +4099,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -4589,13 +4125,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -4603,7 +4139,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4857,7 +4393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCA030-F9F2-483E-836B-D005A702FB24}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4920,7 +4456,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4934,7 +4470,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4984,25 +4520,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5016,13 +4552,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -5030,7 +4566,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5044,13 +4580,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -5058,11 +4594,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5386,12 +4922,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81A0EAA-6C10-4DD8-A4FB-079E3D9185DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5449,7 +4985,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5463,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5513,25 +5049,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5545,13 +5081,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -5559,11 +5095,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5575,13 +5111,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5589,7 +5125,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5603,13 +5139,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>25</v>
@@ -5629,13 +5165,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>140</v>
@@ -5645,7 +5181,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5657,13 +5193,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -5671,11 +5207,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5687,23 +5223,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5955,7 +5491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763FDAF7-26F6-4635-81DC-92F06F60DA52}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6018,7 +5554,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6032,7 +5568,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6082,25 +5618,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6114,13 +5650,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -6128,11 +5664,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6144,13 +5680,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>60</v>
@@ -6158,11 +5694,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6486,7 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6118AA34-FF39-462B-BA9A-59919CFB1DA8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6549,7 +6085,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6563,7 +6099,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6613,25 +6149,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6645,13 +6181,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -6659,11 +6195,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6675,13 +6211,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
@@ -6689,7 +6225,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7015,7 +6551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C9978-16F9-48D0-A2A5-ADCF2C8BD847}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7078,7 +6614,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7092,7 +6628,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7142,25 +6678,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7174,13 +6710,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -7188,11 +6724,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7204,13 +6740,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>60</v>
@@ -7218,11 +6754,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7546,12 +7082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C16C-87A7-4D52-8844-C64F7CD8FF78}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7609,7 +7145,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7623,7 +7159,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7673,25 +7209,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7705,13 +7241,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>60</v>
@@ -7719,11 +7255,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7735,13 +7271,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>40</v>
@@ -7749,7 +7285,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7763,13 +7299,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>250</v>
@@ -7777,7 +7313,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -7791,23 +7327,588 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>dorc int (1)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D65A4E3-5E1C-45A9-BCF8-04CD5CE3085E}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44719</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table BoardC (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int (8),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>board_id int (7),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>sender_id varchar (60),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>comment varchar (100),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8581257E-A05F-408B-A540-DDF77DC3E6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B5B8A-B14E-415C-83CF-ACB13702FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="128">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -419,10 +419,6 @@
   </si>
   <si>
     <t>freespace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varcar</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1259,7 +1255,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -1458,10 +1454,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
@@ -1693,7 +1689,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1765,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1847,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -1865,7 +1861,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1877,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -1895,7 +1891,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2224,7 +2220,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2378,10 +2374,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -2393,7 +2389,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2741,7 +2737,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2895,10 +2891,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2913,7 +2909,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2943,7 +2939,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3272,7 +3268,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3426,10 +3422,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -3454,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -3472,7 +3468,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
@@ -3484,10 +3480,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -3502,7 +3498,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="e">
         <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3514,13 +3510,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3530,7 +3526,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3542,13 +3538,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3558,7 +3554,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3832,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF350CD-4574-41A1-8FC1-E78F8427A005}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4049,7 +4045,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -4061,7 +4057,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>prefecture varcar (10),</v>
+        <v>prefecture varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4084,10 +4080,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4105,7 +4101,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -4117,7 +4113,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>freespace freespace (30),</v>
+        <v>freespace varchar (30),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4398,7 +4394,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4580,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -4598,7 +4594,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4927,7 +4923,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:J15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5099,7 +5095,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5111,10 +5107,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5139,10 +5135,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -5165,10 +5161,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -5181,7 +5177,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5193,10 +5189,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -5211,7 +5207,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5223,13 +5219,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5239,7 +5235,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5496,7 +5492,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5568,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5650,10 +5646,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -5668,7 +5664,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5680,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5698,7 +5694,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6027,7 +6023,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6181,10 +6177,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -6199,7 +6195,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6211,10 +6207,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -6556,7 +6552,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6710,10 +6706,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -6728,7 +6724,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6740,10 +6736,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -6758,7 +6754,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7086,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C16C-87A7-4D52-8844-C64F7CD8FF78}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7259,7 +7255,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7271,10 +7267,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -7299,10 +7295,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -7327,13 +7323,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7343,7 +7339,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7355,10 +7351,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -7373,7 +7369,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -7648,7 +7644,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="C10:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7706,7 +7702,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7720,7 +7716,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7802,10 +7798,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -7820,7 +7816,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7832,10 +7828,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -7850,7 +7846,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7862,10 +7858,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -7880,7 +7876,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7892,13 +7888,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7908,7 +7904,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B5B8A-B14E-415C-83CF-ACB13702FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C81E9-EE16-4463-AB4B-01F0A554B1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -553,16 +553,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自動入力</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板ID</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -594,13 +584,6 @@
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコン初期値</t>
-    <rPh sb="4" eb="7">
-      <t>ショキチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -727,13 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自動入力</t>
-    <rPh sb="0" eb="4">
-      <t>ジドウニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板コメント</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -784,6 +760,36 @@
       <t>イヌ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力 DEFAULT CURRENT_time</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力 DEFAULT CURRENT_date</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動入力 DEFAULT CURRENT_date</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>DEFAULT '/dotchiha/img/icon.jpg'</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -1454,10 +1460,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
@@ -1689,7 +1695,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1747,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1761,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1832,7 +1838,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (8),</v>
@@ -1843,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -1861,7 +1869,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1873,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>81</v>
@@ -1891,7 +1899,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2220,7 +2228,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2363,7 +2371,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (10),</v>
@@ -2374,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -2389,7 +2399,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2737,7 +2747,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2880,7 +2890,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (9),</v>
@@ -2891,10 +2903,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2909,7 +2921,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2939,7 +2951,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3268,7 +3280,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3411,7 +3423,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (12),</v>
@@ -3422,10 +3436,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -3450,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -3468,7 +3482,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
@@ -3498,7 +3512,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L13" t="e">
         <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3526,7 +3540,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3538,13 +3552,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3554,7 +3568,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3829,7 +3843,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3972,7 +3986,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (5),</v>
@@ -4080,10 +4096,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4394,7 +4410,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4537,7 +4553,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (5),</v>
@@ -4594,7 +4612,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4923,7 +4941,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5066,7 +5084,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (7),</v>
@@ -5095,7 +5115,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5177,7 +5197,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5207,7 +5227,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5235,7 +5255,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5492,7 +5512,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5635,7 +5655,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (8),</v>
@@ -5664,7 +5686,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5694,7 +5716,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6023,7 +6045,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6166,7 +6188,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (8),</v>
@@ -6195,7 +6219,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6552,7 +6576,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6695,7 +6719,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (8),</v>
@@ -6724,7 +6750,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6754,7 +6780,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7083,7 +7109,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7226,7 +7252,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (7),</v>
@@ -7255,7 +7283,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7323,7 +7351,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>77</v>
@@ -7339,7 +7367,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7351,7 +7379,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>76</v>
@@ -7369,7 +7397,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -7644,7 +7672,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="C10:E14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7702,7 +7730,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7716,7 +7744,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7787,7 +7815,9 @@
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int (8),</v>
@@ -7798,10 +7828,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -7816,7 +7846,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7846,7 +7876,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7858,10 +7888,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -7876,7 +7906,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7888,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>77</v>
@@ -7904,7 +7934,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C81E9-EE16-4463-AB4B-01F0A554B1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29168FE-98D3-42A9-8A70-67A56505BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -748,16 +748,6 @@
     <t>犬猫選択</t>
     <rPh sb="0" eb="4">
       <t>イヌネコセンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0が猫、1が犬、2が両方</t>
-    <rPh sb="2" eb="3">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イヌ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1839,7 +1829,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2372,7 +2362,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2891,7 +2881,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3424,7 +3414,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3540,7 +3530,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3568,7 +3558,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3842,7 +3832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF350CD-4574-41A1-8FC1-E78F8427A005}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3987,7 +3977,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4099,7 +4089,7 @@
         <v>101</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4554,7 +4544,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5085,7 +5075,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5255,7 +5245,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5656,7 +5646,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6189,7 +6179,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6720,7 +6710,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -7108,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C16C-87A7-4D52-8844-C64F7CD8FF78}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7253,7 +7243,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -7367,7 +7357,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7397,7 +7387,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -7816,7 +7806,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -7934,7 +7924,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29168FE-98D3-42A9-8A70-67A56505BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB31C1-9ED8-4A3F-BF88-8FB3FB51CFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB31C1-9ED8-4A3F-BF88-8FB3FB51CFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BECE3-9BC2-4082-BC07-147F283F556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,13 @@
     <sheet name="Follow" sheetId="7" r:id="rId7"/>
     <sheet name="Board" sheetId="6" r:id="rId8"/>
     <sheet name="BoardC" sheetId="5" r:id="rId9"/>
-    <sheet name="BoardS" sheetId="15" r:id="rId10"/>
-    <sheet name="Croom" sheetId="4" r:id="rId11"/>
-    <sheet name="Cmember" sheetId="3" r:id="rId12"/>
-    <sheet name="Cmessage" sheetId="2" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId12"/>
+    <sheet name="BoardS" sheetId="15" r:id="rId13"/>
+    <sheet name="Croom" sheetId="4" r:id="rId14"/>
+    <sheet name="Cmember" sheetId="3" r:id="rId15"/>
+    <sheet name="Cmessage" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="133">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -410,10 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>prefecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -780,6 +779,26 @@
   </si>
   <si>
     <t>DEFAULT '/dotchiha/img/icon.jpg'</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT PRIMARY KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posttitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postcomment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cord</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1435,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -1450,10 +1469,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
@@ -1681,6 +1700,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC4E2BE-A01C-4D2A-A9A5-4EA1776E6075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EA27D8-EA8C-4371-8ABE-090D043F3197}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903689D5-680B-4C8F-A49A-DFB4A2A716D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC408542-E10D-40BF-9B21-6187A9D5877D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -1743,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1757,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1829,7 +1887,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1841,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -1859,7 +1917,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1871,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -1889,7 +1947,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2213,7 +2271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F594382-F443-4F4D-81CB-1200F5FD1C87}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2362,7 +2420,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2374,10 +2432,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -2389,7 +2447,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2732,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA132BE-C72F-4289-8A97-720D94F23B3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2881,7 +2939,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2893,10 +2951,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2911,7 +2969,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2941,7 +2999,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3265,11 +3323,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3414,7 +3472,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3426,10 +3484,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -3454,10 +3512,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -3472,7 +3530,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
@@ -3484,10 +3542,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -3502,7 +3560,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="e">
         <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3514,13 +3572,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3530,7 +3588,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3542,13 +3600,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3558,7 +3616,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3833,7 +3891,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3977,7 +4035,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4048,7 +4106,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -4063,7 +4121,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>prefecture varchar (10),</v>
+        <v>address varchar (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4074,7 +4132,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -4086,10 +4144,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4104,7 +4162,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -4544,7 +4602,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4584,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -4602,7 +4660,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4931,7 +4989,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5075,7 +5133,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5105,7 +5163,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5117,10 +5175,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5145,10 +5203,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -5163,7 +5221,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>title varchar (25),</v>
+        <v>posttitle varchar (25),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -5171,10 +5229,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
@@ -5187,11 +5245,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>text varchar (140),</v>
+        <v>postcomment varchar (140),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -5199,10 +5257,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -5217,11 +5275,11 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>dorc int (1),</v>
+        <v>cord int (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -5229,13 +5287,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5245,7 +5303,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5574,7 +5632,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5646,7 +5704,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5658,10 +5716,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -5676,7 +5734,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5688,10 +5746,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -5706,7 +5764,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6179,7 +6237,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6191,10 +6249,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -6209,7 +6267,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6221,10 +6279,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -6710,7 +6768,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6722,10 +6780,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
@@ -6740,7 +6798,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6752,10 +6810,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -6770,7 +6828,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7098,8 +7156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5C16C-87A7-4D52-8844-C64F7CD8FF78}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7243,7 +7301,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -7273,7 +7331,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7285,10 +7343,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -7313,10 +7371,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -7341,13 +7399,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7357,7 +7415,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7369,10 +7427,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -7387,7 +7445,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -7720,7 +7778,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7734,7 +7792,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7806,7 +7864,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -7818,10 +7876,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -7836,7 +7894,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -7848,10 +7906,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -7866,7 +7924,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7878,10 +7936,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
@@ -7896,7 +7954,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7908,13 +7966,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7924,7 +7982,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_貴方はどっち派.xlsx
+++ b/doc/04_DB定義書_貴方はどっち派.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54BECE3-9BC2-4082-BC07-147F283F556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F14C856-0F7D-454D-99D8-2B4B26E139C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,10 @@
     <sheet name="Follow" sheetId="7" r:id="rId7"/>
     <sheet name="Board" sheetId="6" r:id="rId8"/>
     <sheet name="BoardC" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId12"/>
-    <sheet name="BoardS" sheetId="15" r:id="rId13"/>
-    <sheet name="Croom" sheetId="4" r:id="rId14"/>
-    <sheet name="Cmember" sheetId="3" r:id="rId15"/>
-    <sheet name="Cmessage" sheetId="2" r:id="rId16"/>
+    <sheet name="BoardS" sheetId="15" r:id="rId10"/>
+    <sheet name="Croom" sheetId="4" r:id="rId11"/>
+    <sheet name="Cmember" sheetId="3" r:id="rId12"/>
+    <sheet name="Cmessage" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="134">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -798,6 +795,10 @@
   </si>
   <si>
     <t>cord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1700,45 +1701,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC4E2BE-A01C-4D2A-A9A5-4EA1776E6075}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EA27D8-EA8C-4371-8ABE-090D043F3197}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903689D5-680B-4C8F-A49A-DFB4A2A716D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC408542-E10D-40BF-9B21-6187A9D5877D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2271,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F594382-F443-4F4D-81CB-1200F5FD1C87}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2790,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA132BE-C72F-4289-8A97-720D94F23B3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3323,11 +3285,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3890,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF350CD-4574-41A1-8FC1-E78F8427A005}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4064,7 +4026,9 @@
         <v>55</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (60),</v>
